--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANABEL GONZALEZ\Documents\SOSQTP\Documentos Adicionales\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -70,13 +75,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,16 +273,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,23 +301,23 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -331,15 +333,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -348,7 +350,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -363,6 +368,14 @@
       <color rgb="FFFFFF66"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,9 +454,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,6 +489,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -650,289 +665,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="26" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="G2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29">
+      <c r="H2" s="26"/>
+      <c r="I2" s="28">
         <v>47000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>5</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>7</v>
       </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12">
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
         <v>4788.6000000000004</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>5075.25</v>
       </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
         <v>2074.5</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="25">
+      <c r="G7" s="6"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="24">
         <f>B7+C7+D7+E7+F7</f>
         <v>11938.35</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>8</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>9</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>10</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>11</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>12</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>13</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>14</v>
       </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
         <v>3106.5</v>
       </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
         <v>297</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="25">
+      <c r="G9" s="6"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="24">
         <f>B9+C9+D9+E9+F9</f>
         <v>3403.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>16</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>17</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>18</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>19</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>20</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <v>21</v>
       </c>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="15">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
         <v>297</v>
       </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
         <v>3028.5</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="25">
+      <c r="G11" s="6"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="24">
         <f>B11+C11+D11+E11+F11</f>
         <v>3325.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>22</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>23</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>24</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>25</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>26</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>27</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>28</v>
       </c>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
         <v>1587</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>2966.4</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="25">
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="24">
         <f>B13+C13+D13+E13+F13</f>
         <v>4553.3999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
         <v>29</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="25">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="24">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="20" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22">
+      <c r="H17" s="20"/>
+      <c r="I17" s="21">
         <f>I7+I9+I11+I13+I15</f>
         <v>23220.75</v>
       </c>
@@ -947,255 +962,255 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="G2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="2" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>5</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>6</v>
       </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="25">
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="24">
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>8</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>9</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>10</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>11</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>12</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>13</v>
       </c>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="25">
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="24">
         <f>B9+C9+D9+E9+F9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
         <v>14</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>15</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>16</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>17</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>18</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>19</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>20</v>
       </c>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="25">
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="24">
         <f>B11+C11+D11+E11+F11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>21</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>22</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>23</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>24</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>25</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>26</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>27</v>
       </c>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="25">
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="24">
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
         <v>28</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>29</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>30</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>31</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="25">
+      <c r="F14" s="16"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="24">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="20" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22">
+      <c r="H17" s="20"/>
+      <c r="I17" s="21">
         <f>I7+I9+I11+I13+I15</f>
         <v>0</v>
       </c>
@@ -1209,253 +1224,253 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="G2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="2" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="5"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <v>2</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <v>3</v>
       </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="11"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="25">
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="24">
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>6</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>7</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>8</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>9</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="30">
         <v>10</v>
       </c>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="25">
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="24">
         <f>B9+C9+D9+E9+F9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>12</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>13</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>14</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>15</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <v>16</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="30">
         <v>17</v>
       </c>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="25">
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="24">
         <f>B11+C11+D11+E11+F11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>18</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>19</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>20</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>21</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>22</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <v>23</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="30">
         <v>24</v>
       </c>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="25">
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="24">
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
         <v>25</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>26</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>27</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>28</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>29</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="30">
         <v>30</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="25">
+      <c r="H14" s="31"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="24">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="20" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22">
+      <c r="H17" s="20"/>
+      <c r="I17" s="21">
         <f>I7+I9+I11+I13+I15</f>
         <v>0</v>
       </c>
@@ -1469,253 +1484,253 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="G2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="2" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>6</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>7</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>8</v>
       </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="30"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="25">
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="24">
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>9</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>11</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>12</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>13</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>14</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>15</v>
       </c>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="25">
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="24">
         <f>B9+C9+D9+E9+F9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
         <v>16</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>17</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>18</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>19</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>20</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>21</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>22</v>
       </c>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="25">
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="24">
         <f>B11+C11+D11+E11+F11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>23</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>24</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>25</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>26</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>27</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>28</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>29</v>
       </c>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="25">
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="24">
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
         <v>30</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>31</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="25">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="24">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="20" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22">
+      <c r="H17" s="20"/>
+      <c r="I17" s="21">
         <f>I7+I9+I11+I13+I15</f>
         <v>0</v>
       </c>

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -270,14 +270,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,7 +296,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,6 +347,13 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -654,7 +657,7 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -663,278 +666,282 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="26" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29">
+      <c r="H2" s="25"/>
+      <c r="I2" s="27">
         <v>47000</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>5</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <v>7</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10">
         <v>4788.6000000000004</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>5075.25</v>
       </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
         <v>2074.5</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="25">
+      <c r="G7" s="6"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="33">
         <f>B7+C7+D7+E7+F7</f>
         <v>11938.35</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>8</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>9</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>10</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>11</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>12</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>13</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>14</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
         <v>3106.5</v>
       </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
         <v>297</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="25">
+      <c r="G9" s="6"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="33">
         <f>B9+C9+D9+E9+F9</f>
         <v>3403.5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>16</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>17</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>18</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>19</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>20</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>21</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="15">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
         <v>297</v>
       </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
         <v>3028.5</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="25">
+      <c r="G11" s="6"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="33">
         <f>B11+C11+D11+E11+F11</f>
         <v>3325.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>22</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>23</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>24</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>25</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>26</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>27</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>28</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
         <v>1587</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>2966.4</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="25">
+      <c r="E13" s="12">
+        <v>1546.5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>412.5</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="33">
         <f>B13+C13+D13+E13+F13</f>
-        <v>4553.3999999999996</v>
+        <v>6512.4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>29</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="24"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="33">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="I16" s="24"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22">
+      <c r="H17" s="19"/>
+      <c r="I17" s="36">
         <f>I7+I9+I11+I13+I15</f>
-        <v>23220.75</v>
+        <v>25179.75</v>
       </c>
     </row>
   </sheetData>
@@ -960,242 +967,242 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>5</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>6</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="23">
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>8</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>9</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>10</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>11</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>12</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>13</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>14</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>15</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>16</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>17</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>18</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <v>19</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>20</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="23">
         <f>B11+C11+D11+E11+F11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>21</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>22</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>23</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>24</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>25</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>26</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <v>27</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="23">
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>28</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>29</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>30</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>31</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="24"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="23">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="I16" s="24"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22">
+      <c r="H17" s="19"/>
+      <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
         <v>0</v>
       </c>
@@ -1222,240 +1229,240 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="5"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="29">
         <v>2</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="30">
         <v>3</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="11"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="23">
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>6</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>7</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>8</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="29">
         <v>9</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="29">
         <v>10</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>12</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>13</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>14</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>15</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="29">
         <v>16</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="29">
         <v>17</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="23">
         <f>B11+C11+D11+E11+F11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>18</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>19</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>20</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>21</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>22</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="29">
         <v>23</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="29">
         <v>24</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="23">
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>25</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>26</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>27</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>28</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>29</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="29">
         <v>30</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="24"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="23">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="I16" s="24"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22">
+      <c r="H17" s="19"/>
+      <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
         <v>0</v>
       </c>
@@ -1482,240 +1489,240 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>6</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>7</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>8</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="30"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="23">
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>9</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>11</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>12</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>13</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>14</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>15</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>16</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>17</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>18</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>19</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>20</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <v>21</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>22</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="23">
         <f>B11+C11+D11+E11+F11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>23</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>24</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>25</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>26</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>27</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>28</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <v>29</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="23">
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>30</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>31</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="24"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="23">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="I16" s="24"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22">
+      <c r="H17" s="19"/>
+      <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
         <v>0</v>
       </c>

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="FEBRERO" sheetId="1" r:id="rId1"/>
-    <sheet name="MARZO" sheetId="2" r:id="rId2"/>
+    <sheet name="MARZO" sheetId="2" r:id="rId1"/>
+    <sheet name="FEBRERO" sheetId="1" r:id="rId2"/>
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>L</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>MAYO</t>
+  </si>
+  <si>
+    <t>24 santa</t>
+  </si>
+  <si>
+    <t>25 santa</t>
+  </si>
+  <si>
+    <t>26 santa</t>
+  </si>
+  <si>
+    <t>Meta Semanal</t>
+  </si>
+  <si>
+    <t>21 festivo</t>
   </si>
 </sst>
 </file>
@@ -131,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +219,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -270,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,13 +374,22 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -654,18 +690,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I17"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -679,22 +716,22 @@
         <v>10</v>
       </c>
       <c r="H2" s="25"/>
-      <c r="I2" s="27">
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="I2" s="43">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="B4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,229 +756,223 @@
       <c r="I5" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="4">
+      <c r="J5" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="15">
         <v>5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="15">
         <v>6</v>
       </c>
-      <c r="H6" s="17">
-        <v>7</v>
-      </c>
       <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="9"/>
-      <c r="C7" s="10">
-        <v>4788.6000000000004</v>
-      </c>
-      <c r="D7" s="10">
-        <v>5075.25</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>2074.5</v>
-      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="6"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="33">
+      <c r="I7" s="23">
         <f>B7+C7+D7+E7+F7</f>
-        <v>11938.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="40">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
         <v>8</v>
       </c>
-      <c r="C8" s="8">
+      <c r="D8" s="7">
         <v>9</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8" s="8">
         <v>10</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="7">
         <v>11</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="15">
         <v>12</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="15">
         <v>13</v>
       </c>
-      <c r="H8" s="6">
-        <v>14</v>
-      </c>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>3106.5</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>297</v>
-      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="6"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="33">
+      <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
-        <v>3403.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="40">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="B10" s="5">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>16</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>17</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>18</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="15">
         <v>19</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="15">
         <v>20</v>
       </c>
-      <c r="H10" s="17">
-        <v>21</v>
-      </c>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
-        <v>297</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <v>3028.5</v>
-      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="6"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="33">
+      <c r="I11" s="23">
         <f>B11+C11+D11+E11+F11</f>
-        <v>3325.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="40">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8">
         <v>22</v>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="7">
         <v>23</v>
       </c>
-      <c r="D12" s="7">
-        <v>24</v>
-      </c>
-      <c r="E12" s="8">
-        <v>25</v>
-      </c>
-      <c r="F12" s="7">
-        <v>26</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="15">
         <v>27</v>
       </c>
-      <c r="H12" s="17">
-        <v>28</v>
-      </c>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="11">
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1587</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2966.4</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1546.5</v>
-      </c>
-      <c r="F13" s="11">
-        <v>412.5</v>
-      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="14"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="6"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="33">
+      <c r="I13" s="23">
         <f>B13+C13+D13+E13+F13</f>
-        <v>6512.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="40">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" s="5">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5">
         <v>29</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="5">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5">
+        <v>31</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="6"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="22"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="14"/>
       <c r="G15" s="6"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="33">
+      <c r="I15" s="23">
         <f>B15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="7:9" ht="15.75">
+      <c r="J15" s="40">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="I16" s="22"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="7:10" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="19"/>
-      <c r="I17" s="36">
+      <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>25179.75</v>
+        <v>0</v>
+      </c>
+      <c r="J17" s="41">
+        <f>J7+J9+J11+J13+J15</f>
+        <v>49000</v>
       </c>
     </row>
   </sheetData>
@@ -958,12 +989,12 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -971,25 +1002,29 @@
         <v>8</v>
       </c>
       <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
+      <c r="C2" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="25"/>
-      <c r="I2" s="27"/>
+      <c r="I2" s="27">
+        <v>47000</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="B4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1018,193 +1053,227 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="15">
         <v>5</v>
       </c>
-      <c r="H6" s="15">
+      <c r="G6" s="6">
         <v>6</v>
+      </c>
+      <c r="H6" s="17">
+        <v>7</v>
       </c>
       <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="10">
+        <v>4788.6000000000004</v>
+      </c>
+      <c r="D7" s="10">
+        <v>5075.25</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2074.5</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="23">
+      <c r="I7" s="32">
         <f>B7+C7+D7+E7+F7</f>
-        <v>0</v>
+        <v>11938.35</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7">
-        <v>11</v>
-      </c>
-      <c r="G8" s="15">
         <v>12</v>
       </c>
-      <c r="H8" s="15">
+      <c r="G8" s="6">
         <v>13</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="H8" s="6">
+        <v>14</v>
+      </c>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3106.5</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>297</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="23">
+      <c r="I9" s="32">
         <f>B9+C9+D9+E9+F9</f>
-        <v>0</v>
+        <v>3403.5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="5">
-        <v>18</v>
-      </c>
-      <c r="G10" s="15">
         <v>19</v>
       </c>
-      <c r="H10" s="15">
+      <c r="G10" s="6">
         <v>20</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="H10" s="17">
+        <v>21</v>
+      </c>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>297</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3028.5</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="23">
+      <c r="I11" s="32">
         <f>B11+C11+D11+E11+F11</f>
-        <v>0</v>
+        <v>3325.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7">
-        <v>25</v>
-      </c>
-      <c r="G12" s="15">
         <v>26</v>
       </c>
-      <c r="H12" s="15">
+      <c r="G12" s="6">
         <v>27</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="H12" s="17">
+        <v>28</v>
+      </c>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1587</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2966.4</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1546.5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>412.5</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="23">
+      <c r="I13" s="32">
         <f>B13+C13+D13+E13+F13</f>
-        <v>0</v>
+        <v>6512.4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="5">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5">
         <v>29</v>
       </c>
-      <c r="D14" s="5">
-        <v>30</v>
-      </c>
-      <c r="E14" s="5">
-        <v>31</v>
-      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="6"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="6"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="23">
+      <c r="I15" s="32">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="I16" s="22"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="7:9" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="19"/>
-      <c r="I17" s="20">
+      <c r="I17" s="35">
         <f>I7+I9+I11+I13+I15</f>
-        <v>0</v>
+        <v>25179.75</v>
       </c>
     </row>
   </sheetData>
@@ -1212,6 +1281,7 @@
     <mergeCell ref="B4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1243,15 +1313,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1503,15 +1573,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,9 +378,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -390,6 +387,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -690,19 +691,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -716,22 +717,22 @@
         <v>10</v>
       </c>
       <c r="H2" s="25"/>
-      <c r="I2" s="43">
+      <c r="I2" s="42">
         <v>49000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:11" ht="18.75">
+      <c r="B4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,11 +757,11 @@
       <c r="I5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -781,25 +782,35 @@
         <v>6</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="10">
+        <v>567</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1445.4</v>
+      </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>297</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="17"/>
       <c r="I7" s="23">
         <f>B7+C7+D7+E7+F7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="40">
+        <v>2309.4</v>
+      </c>
+      <c r="J7" s="39">
         <v>9800</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="43">
+        <f>J7-I7</f>
+        <v>7490.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -822,9 +833,9 @@
         <v>13</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -836,11 +847,11 @@
         <f>B9+C9+D9+E9+F9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="39">
         <v>12250</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -863,9 +874,9 @@
         <v>20</v>
       </c>
       <c r="I10" s="22"/>
-      <c r="J10" s="39"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="38"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -877,11 +888,11 @@
         <f>B11+C11+D11+E11+F11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="39">
         <v>12250</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -904,9 +915,9 @@
         <v>27</v>
       </c>
       <c r="I12" s="22"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13" s="14"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -918,11 +929,11 @@
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="39">
         <v>4900</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -939,9 +950,9 @@
       <c r="G14" s="6"/>
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="39"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="38"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -953,13 +964,13 @@
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="39">
         <v>9800</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="I16" s="22"/>
-      <c r="J16" s="39"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="7:10" ht="15.75">
       <c r="G17" s="18" t="s">
@@ -968,9 +979,9 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="41">
+        <v>2309.4</v>
+      </c>
+      <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
         <v>49000</v>
       </c>
@@ -1016,15 +1027,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1313,15 +1324,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1573,15 +1584,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>L</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>21 festivo</t>
+  </si>
+  <si>
+    <t>porcentaje del total de venta</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>MTD</t>
   </si>
 </sst>
 </file>
@@ -146,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +240,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -293,11 +308,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,14 +403,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentual" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,19 +716,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K17"/>
+  <dimension ref="A2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -721,18 +747,18 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75">
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="1:14" ht="18.75">
+      <c r="B4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,8 +786,14 @@
       <c r="J5" s="41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -783,8 +815,10 @@
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="44"/>
+      <c r="L6" s="50"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>567</v>
@@ -805,12 +839,13 @@
       <c r="J7" s="39">
         <v>9800</v>
       </c>
-      <c r="K7" s="43">
-        <f>J7-I7</f>
-        <v>7490.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="46">
+        <f>I7*100/J7</f>
+        <v>23.56530612244898</v>
+      </c>
+      <c r="L7" s="50"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -834,24 +869,37 @@
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="38"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="11"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="50"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="11">
+        <v>2859</v>
+      </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11">
+        <v>1017</v>
+      </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <v>1551</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="17"/>
       <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
-        <v>0</v>
+        <v>5427</v>
       </c>
       <c r="J9" s="39">
         <v>12250</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="46">
+        <f>I9*100/J9</f>
+        <v>44.302040816326532</v>
+      </c>
+      <c r="L9" s="50"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -875,8 +923,10 @@
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="38"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="44"/>
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -891,8 +941,10 @@
       <c r="J11" s="39">
         <v>12250</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="46"/>
+      <c r="L11" s="50"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -916,8 +968,10 @@
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="38"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="44"/>
+      <c r="L12" s="50"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" s="14"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -932,8 +986,10 @@
       <c r="J13" s="39">
         <v>4900</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="46"/>
+      <c r="L13" s="50"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -951,8 +1007,10 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
       <c r="J14" s="38"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="44"/>
+      <c r="L14" s="50"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -967,23 +1025,36 @@
       <c r="J15" s="39">
         <v>9800</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="46"/>
+      <c r="L15" s="50"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="I16" s="22"/>
       <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="7:10" ht="15.75">
+      <c r="K16" s="44"/>
+      <c r="L16" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+    </row>
+    <row r="17" spans="7:12" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>2309.4</v>
+        <v>7736.4</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
         <v>49000</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="48">
+        <f>I17*100/J17</f>
+        <v>15.788571428571428</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1071,7 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1027,15 +1098,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1324,15 +1395,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1584,15 +1655,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
@@ -12,7 +12,7 @@
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -85,13 +85,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,6 +392,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -403,6 +405,11 @@
       <color rgb="FFFFFF66"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -481,6 +488,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -515,6 +523,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -690,20 +699,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -721,7 +730,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="44" t="s">
         <v>13</v>
       </c>
@@ -732,7 +741,7 @@
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -784,7 +793,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>567</v>
@@ -810,7 +819,7 @@
         <v>7490.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -835,23 +844,32 @@
       <c r="I8" s="22"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
+        <v>2859</v>
+      </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11">
+        <v>1017</v>
+      </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <v>1551</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="17"/>
       <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
-        <v>0</v>
+        <v>5427</v>
       </c>
       <c r="J9" s="39">
         <v>12250</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="45">
+        <v>6823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -876,7 +894,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -892,7 +910,7 @@
         <v>12250</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -917,7 +935,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="38"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -933,7 +951,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -952,7 +970,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="38"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -968,18 +986,18 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
       <c r="J16" s="38"/>
     </row>
-    <row r="17" spans="7:10" ht="15.75">
+    <row r="17" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>2309.4</v>
+        <v>7736.4</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
@@ -996,19 +1014,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1044,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="44" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +1055,7 @@
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -1087,7 +1105,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>4788.6000000000004</v>
@@ -1108,7 +1126,7 @@
         <v>11938.35</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>8</v>
       </c>
@@ -1132,7 +1150,7 @@
       </c>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>0</v>
       </c>
@@ -1155,7 +1173,7 @@
         <v>3403.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>15</v>
       </c>
@@ -1179,7 +1197,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>0</v>
       </c>
@@ -1202,7 +1220,7 @@
         <v>3325.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>22</v>
       </c>
@@ -1226,7 +1244,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>0</v>
       </c>
@@ -1249,7 +1267,7 @@
         <v>6512.4</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>29</v>
       </c>
@@ -1261,7 +1279,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1274,10 +1292,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
@@ -1297,19 +1315,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1341,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="44" t="s">
         <v>14</v>
       </c>
@@ -1334,7 +1352,7 @@
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1376,7 +1394,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1389,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1413,7 +1431,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1426,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>11</v>
       </c>
@@ -1450,7 +1468,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1463,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>18</v>
       </c>
@@ -1487,7 +1505,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1500,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>25</v>
       </c>
@@ -1522,7 +1540,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1535,10 +1553,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
@@ -1557,19 +1575,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1583,7 +1601,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="44" t="s">
         <v>15</v>
       </c>
@@ -1594,7 +1612,7 @@
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1644,7 +1662,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1657,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -1681,7 +1699,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1694,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>16</v>
       </c>
@@ -1718,7 +1736,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1731,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>23</v>
       </c>
@@ -1755,7 +1773,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1768,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>30</v>
       </c>
@@ -1782,7 +1800,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -1795,10 +1813,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -389,10 +389,10 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -700,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K17"/>
+  <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,15 +731,15 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -865,7 +865,7 @@
       <c r="J9" s="39">
         <v>12250</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="44">
         <v>6823</v>
       </c>
     </row>
@@ -895,19 +895,26 @@
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
+      <c r="B11" s="13">
+        <v>1017</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13">
+        <v>825</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="17"/>
       <c r="I11" s="23">
         <f>B11+C11+D11+E11+F11</f>
-        <v>0</v>
+        <v>1842</v>
       </c>
       <c r="J11" s="39">
         <v>12250</v>
+      </c>
+      <c r="K11" s="44">
+        <v>10408</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -990,18 +997,23 @@
       <c r="I16" s="22"/>
       <c r="J16" s="38"/>
     </row>
-    <row r="17" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>7736.4</v>
+        <v>9578.4</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
         <v>49000</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1045,15 +1057,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1342,15 +1354,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1602,15 +1614,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
@@ -12,12 +12,12 @@
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>L</t>
   </si>
@@ -80,19 +80,24 @@
   </si>
   <si>
     <t>21 festivo</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Porcentaje Meta de Venta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +237,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -294,11 +305,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,15 +400,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentual" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,7 +517,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -523,7 +551,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -699,20 +726,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -730,18 +758,18 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="1:14" ht="18.75">
+      <c r="B4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,8 +797,11 @@
       <c r="J5" s="41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -792,8 +823,9 @@
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>567</v>
@@ -814,12 +846,12 @@
       <c r="J7" s="39">
         <v>9800</v>
       </c>
-      <c r="K7" s="43">
-        <f>J7-I7</f>
-        <v>7490.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="47">
+        <f>(I7*100)/J7</f>
+        <v>23.56530612244898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -843,8 +875,9 @@
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="45"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" s="11">
         <v>2859</v>
       </c>
@@ -865,11 +898,12 @@
       <c r="J9" s="39">
         <v>12250</v>
       </c>
-      <c r="K9" s="45">
-        <v>6823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="48">
+        <f>((I9+I7)*100)/(J7+J9)</f>
+        <v>35.085714285714289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -893,24 +927,33 @@
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="38"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="13">
+        <v>1017</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13">
+        <v>825</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="17"/>
       <c r="I11" s="23">
         <f>B11+C11+D11+E11+F11</f>
-        <v>0</v>
+        <v>1842</v>
       </c>
       <c r="J11" s="39">
         <v>12250</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="48">
+        <f>((I11+I9+I7)*100)/(J7+J9+J11)</f>
+        <v>27.92536443148688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -934,9 +977,12 @@
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="38"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
       <c r="E13" s="14"/>
@@ -950,8 +996,12 @@
       <c r="J13" s="39">
         <v>4900</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="48">
+        <f>((I13+I11+I9+I7)*100)/(J9+J11+J13+J7)</f>
+        <v>24.43469387755102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -969,8 +1019,9 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
       <c r="J14" s="38"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="45"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -985,28 +1036,46 @@
       <c r="J15" s="39">
         <v>9800</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="48">
+        <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
+        <v>19.547755102040817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="I16" s="22"/>
       <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K16" s="44"/>
+      <c r="L16" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+    </row>
+    <row r="17" spans="7:14" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>7736.4</v>
+        <v>9578.4</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
         <v>49000</v>
       </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="51">
+        <f>I17*100/J17</f>
+        <v>19.547755102040817</v>
+      </c>
+      <c r="M17" s="52"/>
+      <c r="N17" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B4:H4"/>
+    <mergeCell ref="L17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1014,19 +1083,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1044,18 +1113,18 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="1:9" ht="18.75">
+      <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -1105,7 +1174,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>4788.6000000000004</v>
@@ -1126,7 +1195,7 @@
         <v>11938.35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="7">
         <v>8</v>
       </c>
@@ -1150,7 +1219,7 @@
       </c>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="11">
         <v>0</v>
       </c>
@@ -1173,7 +1242,7 @@
         <v>3403.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="5">
         <v>15</v>
       </c>
@@ -1197,7 +1266,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="13">
         <v>0</v>
       </c>
@@ -1220,7 +1289,7 @@
         <v>3325.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="7">
         <v>22</v>
       </c>
@@ -1244,7 +1313,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="11">
         <v>0</v>
       </c>
@@ -1267,7 +1336,7 @@
         <v>6512.4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="5">
         <v>29</v>
       </c>
@@ -1279,7 +1348,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1292,10 +1361,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
@@ -1315,19 +1384,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1341,18 +1410,18 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="1:9" ht="18.75">
+      <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="4"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1394,7 +1463,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="9"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1407,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1431,7 +1500,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1444,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="5">
         <v>11</v>
       </c>
@@ -1468,7 +1537,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1481,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="7">
         <v>18</v>
       </c>
@@ -1505,7 +1574,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1518,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="5">
         <v>25</v>
       </c>
@@ -1540,7 +1609,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1553,10 +1622,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
@@ -1575,19 +1644,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1601,18 +1670,18 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="1:9" ht="18.75">
+      <c r="B4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1662,7 +1731,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="28"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1675,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -1699,7 +1768,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1712,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="5">
         <v>16</v>
       </c>
@@ -1736,7 +1805,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1749,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="7">
         <v>23</v>
       </c>
@@ -1773,7 +1842,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1786,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="5">
         <v>30</v>
       </c>
@@ -1800,7 +1869,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -1813,10 +1882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MARZO" sheetId="2" r:id="rId1"/>
@@ -400,9 +400,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,6 +409,9 @@
     <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -759,15 +759,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -797,7 +797,7 @@
       <c r="J5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="45" t="s">
         <v>21</v>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="45"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="9"/>
@@ -846,7 +846,7 @@
       <c r="J7" s="39">
         <v>9800</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="46">
         <f>(I7*100)/J7</f>
         <v>23.56530612244898</v>
       </c>
@@ -875,7 +875,7 @@
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="45"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="11">
@@ -898,7 +898,7 @@
       <c r="J9" s="39">
         <v>12250</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="47">
         <f>((I9+I7)*100)/(J7+J9)</f>
         <v>35.085714285714289</v>
       </c>
@@ -927,7 +927,7 @@
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="45"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="13">
@@ -948,7 +948,7 @@
       <c r="J11" s="39">
         <v>12250</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="47">
         <f>((I11+I9+I7)*100)/(J7+J9+J11)</f>
         <v>27.92536443148688</v>
       </c>
@@ -977,7 +977,7 @@
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="45"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="14">
@@ -996,7 +996,7 @@
       <c r="J13" s="39">
         <v>4900</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="47">
         <f>((I13+I11+I9+I7)*100)/(J9+J11+J13+J7)</f>
         <v>24.43469387755102</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="45"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="13"/>
@@ -1036,7 +1036,7 @@
       <c r="J15" s="39">
         <v>9800</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="47">
         <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
         <v>19.547755102040817</v>
       </c>
@@ -1044,12 +1044,12 @@
     <row r="16" spans="1:14">
       <c r="I16" s="22"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="49" t="s">
+      <c r="K16" s="43"/>
+      <c r="L16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
     </row>
     <row r="17" spans="7:14" ht="15.75">
       <c r="G17" s="18" t="s">
@@ -1064,7 +1064,7 @@
         <f>J7+J9+J11+J13+J15</f>
         <v>49000</v>
       </c>
-      <c r="K17" s="44"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="51">
         <f>I17*100/J17</f>
         <v>19.547755102040817</v>
@@ -1114,15 +1114,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1411,15 +1411,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1647,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1671,15 +1671,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="MARZO" sheetId="2" r:id="rId1"/>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -983,7 +983,9 @@
       <c r="B13" s="14">
         <v>0</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="12">
+        <v>3235.5</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -991,14 +993,14 @@
       <c r="H13" s="17"/>
       <c r="I13" s="23">
         <f>B13+C13+D13+E13+F13</f>
-        <v>0</v>
+        <v>3235.5</v>
       </c>
       <c r="J13" s="39">
         <v>4900</v>
       </c>
       <c r="K13" s="47">
         <f>((I13+I11+I9+I7)*100)/(J9+J11+J13+J7)</f>
-        <v>24.43469387755102</v>
+        <v>32.688520408163264</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1038,7 +1040,7 @@
       </c>
       <c r="K15" s="47">
         <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
-        <v>19.547755102040817</v>
+        <v>26.150816326530613</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1058,7 +1060,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>9578.4</v>
+        <v>12813.9</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
@@ -1067,7 +1069,7 @@
       <c r="K17" s="43"/>
       <c r="L17" s="51">
         <f>I17*100/J17</f>
-        <v>19.547755102040817</v>
+        <v>26.150816326530613</v>
       </c>
       <c r="M17" s="52"/>
       <c r="N17" s="53"/>
@@ -1647,7 +1649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -310,7 +310,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,6 +409,7 @@
     <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -730,7 +731,7 @@
   <dimension ref="A2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -759,15 +760,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -802,6 +803,9 @@
       </c>
     </row>
     <row r="6" spans="1:14">
+      <c r="A6">
+        <v>9</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -852,6 +856,9 @@
       </c>
     </row>
     <row r="8" spans="1:14">
+      <c r="A8">
+        <v>10</v>
+      </c>
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -904,6 +911,9 @@
       </c>
     </row>
     <row r="10" spans="1:14">
+      <c r="A10">
+        <v>11</v>
+      </c>
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -954,6 +964,9 @@
       </c>
     </row>
     <row r="12" spans="1:14">
+      <c r="A12">
+        <v>12</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1004,6 +1017,9 @@
       </c>
     </row>
     <row r="14" spans="1:14">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -1031,8 +1047,8 @@
       <c r="F15" s="14"/>
       <c r="G15" s="6"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="23">
-        <f>B15</f>
+      <c r="I15" s="50">
+        <f>B15+C15+D15+E15</f>
         <v>0</v>
       </c>
       <c r="J15" s="39">
@@ -1067,12 +1083,12 @@
         <v>49000</v>
       </c>
       <c r="K17" s="43"/>
-      <c r="L17" s="51">
+      <c r="L17" s="52">
         <f>I17*100/J17</f>
         <v>26.150816326530613</v>
       </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1089,7 +1105,7 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1116,15 +1132,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1153,6 +1169,9 @@
       </c>
     </row>
     <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -1198,6 +1217,9 @@
       </c>
     </row>
     <row r="8" spans="1:9">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" s="7">
         <v>8</v>
       </c>
@@ -1245,6 +1267,9 @@
       </c>
     </row>
     <row r="10" spans="1:9">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10" s="5">
         <v>15</v>
       </c>
@@ -1292,6 +1317,9 @@
       </c>
     </row>
     <row r="12" spans="1:9">
+      <c r="A12">
+        <v>8</v>
+      </c>
       <c r="B12" s="7">
         <v>22</v>
       </c>
@@ -1339,6 +1367,9 @@
       </c>
     </row>
     <row r="14" spans="1:9">
+      <c r="A14">
+        <v>9</v>
+      </c>
       <c r="B14" s="5">
         <v>29</v>
       </c>
@@ -1413,15 +1444,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1673,15 +1704,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
@@ -12,7 +12,7 @@
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -91,13 +91,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,7 +426,7 @@
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,6 +518,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -552,6 +553,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -727,21 +729,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="36" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -759,7 +761,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75">
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
         <v>13</v>
       </c>
@@ -770,7 +772,7 @@
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -829,7 +831,7 @@
       <c r="J6" s="37"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>567</v>
@@ -855,7 +857,7 @@
         <v>23.56530612244898</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -884,7 +886,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>2859</v>
       </c>
@@ -910,7 +912,7 @@
         <v>35.085714285714289</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -939,7 +941,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>1017</v>
       </c>
@@ -963,7 +965,7 @@
         <v>27.92536443148688</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -992,7 +994,7 @@
       <c r="J12" s="38"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>0</v>
       </c>
@@ -1016,7 +1018,7 @@
         <v>32.688520408163264</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1039,27 +1041,35 @@
       <c r="J14" s="38"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>594</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1272</v>
+      </c>
+      <c r="D15" s="13">
+        <v>825</v>
+      </c>
+      <c r="E15" s="13">
+        <v>567</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="6"/>
       <c r="H15" s="17"/>
       <c r="I15" s="50">
         <f>B15+C15+D15+E15</f>
-        <v>0</v>
+        <v>3258</v>
       </c>
       <c r="J15" s="39">
         <v>9800</v>
       </c>
       <c r="K15" s="47">
         <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
-        <v>26.150816326530613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>32.799795918367344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
       <c r="J16" s="38"/>
       <c r="K16" s="43"/>
@@ -1069,14 +1079,14 @@
       <c r="M16" s="49"/>
       <c r="N16" s="49"/>
     </row>
-    <row r="17" spans="7:14" ht="15.75">
+    <row r="17" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>12813.9</v>
+        <v>16071.9</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
@@ -1085,7 +1095,7 @@
       <c r="K17" s="43"/>
       <c r="L17" s="52">
         <f>I17*100/J17</f>
-        <v>26.150816326530613</v>
+        <v>32.799795918367344</v>
       </c>
       <c r="M17" s="53"/>
       <c r="N17" s="54"/>
@@ -1101,19 +1111,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1141,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1152,7 @@
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1195,7 +1205,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>4788.6000000000004</v>
@@ -1216,7 +1226,7 @@
         <v>11938.35</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1243,7 +1253,7 @@
       </c>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>0</v>
       </c>
@@ -1266,7 +1276,7 @@
         <v>3403.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1293,7 +1303,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>0</v>
       </c>
@@ -1316,7 +1326,7 @@
         <v>3325.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1343,7 +1353,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>0</v>
       </c>
@@ -1366,7 +1376,7 @@
         <v>6512.4</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1381,7 +1391,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1394,10 +1404,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
@@ -1417,19 +1427,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1453,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
         <v>14</v>
       </c>
@@ -1454,7 +1464,7 @@
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1496,7 +1506,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1509,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1533,7 +1543,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1546,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>11</v>
       </c>
@@ -1570,7 +1580,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1583,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>18</v>
       </c>
@@ -1607,7 +1617,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1620,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>25</v>
       </c>
@@ -1642,7 +1652,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1655,10 +1665,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
@@ -1677,19 +1687,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1703,7 +1713,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
         <v>15</v>
       </c>
@@ -1714,7 +1724,7 @@
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1740,7 +1750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1764,7 +1774,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1777,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -1801,7 +1811,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1814,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>16</v>
       </c>
@@ -1838,7 +1848,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1851,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>23</v>
       </c>
@@ -1875,7 +1885,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1888,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>30</v>
       </c>
@@ -1902,7 +1912,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -1915,10 +1925,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>12</v>
       </c>

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MARZO" sheetId="2" r:id="rId1"/>
@@ -732,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,12 +1511,14 @@
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>1092</v>
+      </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30"/>
       <c r="I7" s="23">
         <f>B7+C7+D7+E7+F7</f>
-        <v>0</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1675,7 +1677,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>0</v>
+        <v>1092</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos Adicionales/Ventas Alma Garcia.xlsx
+++ b/Documentos Adicionales/Ventas Alma Garcia.xlsx
@@ -1431,7 +1431,7 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,14 +1548,20 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
+      <c r="D9" s="11">
+        <v>2241.5</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1204.5</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1884</v>
+      </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
       <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
-        <v>0</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1677,7 +1683,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>1092</v>
+        <v>6422</v>
       </c>
     </row>
   </sheetData>
